--- a/src/data/Water related datasets/SDG_6_4_2_WATER_STRESS__13May2021_.xlsx
+++ b/src/data/Water related datasets/SDG_6_4_2_WATER_STRESS__13May2021_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omdena\omdena-egypt-freshwater\src\data\Water related datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8608C12B-C7A7-43C1-A6D1-0E1B529DCA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C68D1E-C4E9-4494-8B0D-B5BF4ADC35C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B7EB0B80-BCAC-C64C-AD2C-E29D6543434A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="82">
   <si>
     <t>indicator</t>
   </si>
@@ -236,6 +236,48 @@
   </si>
   <si>
     <t>Includes data from another category</t>
+  </si>
+  <si>
+    <t>seriesid</t>
+  </si>
+  <si>
+    <t>seriesdescription</t>
+  </si>
+  <si>
+    <t>geoareacode</t>
+  </si>
+  <si>
+    <t>GeoAreaName</t>
+  </si>
+  <si>
+    <t>timeperiod</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>time_detail</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>footnote</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>reportingtype</t>
+  </si>
+  <si>
+    <t>observationstatus</t>
+  </si>
+  <si>
+    <t>seriescode</t>
   </si>
 </sst>
 </file>
@@ -296,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -306,6 +348,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,9 +666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E36FF74-3A58-DB4F-BA61-9171E1C04070}">
   <dimension ref="A1:O3479"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -638,44 +682,47 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1545</v>
+      <c r="B1" t="s">
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>818</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G1" s="4">
-        <v>103.9</v>
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="N1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -695,10 +742,10 @@
         <v>17</v>
       </c>
       <c r="F2" s="1">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G2" s="4">
-        <v>105.6</v>
+        <v>103.9</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
@@ -707,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
@@ -716,7 +763,7 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O2" t="s">
         <v>9</v>
@@ -739,10 +786,10 @@
         <v>17</v>
       </c>
       <c r="F3" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G3" s="4">
-        <v>107.2</v>
+        <v>105.6</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
@@ -783,13 +830,13 @@
         <v>17</v>
       </c>
       <c r="F4" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G4" s="4">
-        <v>108.9</v>
+        <v>107.2</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -827,10 +874,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="1">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G5" s="4">
-        <v>110.6</v>
+        <v>108.9</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -871,10 +918,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G6" s="4">
-        <v>112.3</v>
+        <v>110.6</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -915,10 +962,10 @@
         <v>17</v>
       </c>
       <c r="F7" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G7" s="4">
-        <v>114</v>
+        <v>112.3</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -959,10 +1006,10 @@
         <v>17</v>
       </c>
       <c r="F8" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G8" s="4">
-        <v>115.6</v>
+        <v>114</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -1003,13 +1050,13 @@
         <v>17</v>
       </c>
       <c r="F9" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G9" s="4">
-        <v>117.3</v>
+        <v>115.6</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
         <v>4</v>
@@ -1047,10 +1094,10 @@
         <v>17</v>
       </c>
       <c r="F10" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G10" s="4">
-        <v>119</v>
+        <v>117.3</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -1091,10 +1138,10 @@
         <v>17</v>
       </c>
       <c r="F11" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G11" s="4">
-        <v>120.7</v>
+        <v>119</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -1103,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L11" t="s">
         <v>6</v>
@@ -1112,7 +1159,7 @@
         <v>7</v>
       </c>
       <c r="N11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O11" t="s">
         <v>9</v>
@@ -1135,10 +1182,10 @@
         <v>17</v>
       </c>
       <c r="F12" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G12" s="4">
-        <v>122.4</v>
+        <v>120.7</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -1179,10 +1226,10 @@
         <v>17</v>
       </c>
       <c r="F13" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G13" s="4">
-        <v>124</v>
+        <v>122.4</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -1223,13 +1270,13 @@
         <v>17</v>
       </c>
       <c r="F14" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G14" s="4">
-        <v>122.7</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
         <v>4</v>
@@ -1267,10 +1314,10 @@
         <v>17</v>
       </c>
       <c r="F15" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G15" s="4">
-        <v>121.3</v>
+        <v>122.7</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -1311,10 +1358,10 @@
         <v>17</v>
       </c>
       <c r="F16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G16" s="2">
-        <v>110.56466302370001</v>
+        <v>2014</v>
+      </c>
+      <c r="G16" s="4">
+        <v>121.3</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -1355,10 +1402,10 @@
         <v>17</v>
       </c>
       <c r="F17" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G17" s="2">
-        <v>110.1092896175</v>
+        <v>110.56466302370001</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -1399,10 +1446,10 @@
         <v>17</v>
       </c>
       <c r="F18" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G18" s="2">
-        <v>116.93989071039999</v>
+        <v>110.1092896175</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -1443,19 +1490,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G19" s="2">
         <v>116.93989071039999</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
         <v>4</v>
       </c>
       <c r="K19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L19" t="s">
         <v>6</v>
@@ -1464,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="N19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O19" t="s">
         <v>9</v>
@@ -1473,6 +1520,45 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1545</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>818</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G20" s="2">
+        <v>116.93989071039999</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -7177,12 +7263,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="df576e48-a194-4aac-a444-7391c5dc3ebd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7409,23 +7500,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="df576e48-a194-4aac-a444-7391c5dc3ebd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{102B1788-0A06-4657-825D-CCCD70BD3644}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11ED10C9-F020-4217-9479-039D9D7BD366}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df576e48-a194-4aac-a444-7391c5dc3ebd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7450,11 +7538,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11ED10C9-F020-4217-9479-039D9D7BD366}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{102B1788-0A06-4657-825D-CCCD70BD3644}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df576e48-a194-4aac-a444-7391c5dc3ebd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>